--- a/deep/train_tools/DataBase/train_data.xlsx
+++ b/deep/train_tools/DataBase/train_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kei/PycharmProjects/first_chatbot/train_tools/qna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/MacOS_System/Projects/studyNodeJs/deep/train_tools/DataBase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A853BDA-43A5-AE4C-916E-BDA6CC036CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37F5F6B-9989-874F-B611-0316EFD7AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-8880" windowWidth="21600" windowHeight="20940" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
+    <workbookView xWindow="-18000" yWindow="11060" windowWidth="18000" windowHeight="20940" xr2:uid="{91B3E3B2-3B68-0C4C-B8EF-7A84BAE2F665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>개체명(NER)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,66 @@
   </si>
   <si>
     <t>https://i.imgur.com/UluUFMp.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 먹고싶다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 주문 할까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저도 배고파요ㅜㅜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연애 하고싶어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔로천국, 커플지옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님 사랑합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저도 사랑합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>♥♥♥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{B_FOOD} 끓여줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쉽지만 제가 손발이 없네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>♥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무아미타불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관세음보살</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4CC4D-BBB6-C948-A332-3C0CB96286D0}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -640,6 +700,89 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="19">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
